--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="成绩导入模板" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="成绩导入模板" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>王怀铮</t>
+          <t>蔡煜安</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>李亦辰</t>
+          <t>陈泽勋</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -563,12 +563,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>陈楷烨</t>
+          <t>陈梓轩</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>涂思铭</t>
+          <t>洪健城</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>黄罄易</t>
+          <t>黄镓艺</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>吴建霖</t>
+          <t>江臻胤</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>黄启亮</t>
+          <t>练长鑫</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>张煜林</t>
+          <t>廖柏辰</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -665,12 +665,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>黄贵权</t>
+          <t>林梓琦</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>夏逢瑞</t>
+          <t>苏俊敏</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>苏学彬</t>
+          <t>张煜锋</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>胡梓灿</t>
+          <t>陈煌仪</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -733,12 +733,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>黄铄淞</t>
+          <t>王璟逸</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>何礼轩</t>
+          <t>张瀚琪</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -767,12 +767,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>黄辰隽</t>
+          <t>林禹衡</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>肖锐骐</t>
+          <t>王茁恺</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>康高钥</t>
+          <t>黄蓥芯</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -818,12 +818,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>庄程珺</t>
+          <t>杨子妍</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -835,12 +835,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>魏瀚彬</t>
+          <t>曾雅琳</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>陈芷嫣</t>
+          <t>苏恩怡</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>兰勇炘</t>
+          <t>王希恩</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>吴世垚</t>
+          <t>姚庄诚</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -903,12 +903,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>庄文焘</t>
+          <t>张宇彤</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -920,12 +920,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>林昕妤</t>
+          <t>李嘉勋</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>姚翔方</t>
+          <t>林凯楠</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>黄永帅</t>
+          <t>陈玥颖</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -971,12 +971,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>林煌宸</t>
+          <t>费奕文</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -988,12 +988,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>傅铂诗</t>
+          <t>梁世弘</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -1005,12 +1005,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>黄佳烨</t>
+          <t>吕紫翔</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>许雯淇</t>
+          <t>李秋华</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>赖瀚宸</t>
+          <t>许宏伟</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>徐子嘉</t>
+          <t>陈文铄</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -1073,12 +1073,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>郭宇珊</t>
+          <t>赵梓言</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -1090,12 +1090,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>赵娅慧</t>
+          <t>苏瑾萱</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>谢优优</t>
+          <t>陈嘉俊</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>赖雨涵</t>
+          <t>郑沛文</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>六年级3班</t>
+          <t>五年3班</t>
         </is>
       </c>
     </row>
@@ -1300,9 +1300,9 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A50:E50"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蔡煜安</t>
+          <t>吴俊亿</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>陈泽勋</t>
+          <t>郭凯霖</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>陈梓轩</t>
+          <t>林祥锦</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>洪健城</t>
+          <t>张浚豪</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>黄镓艺</t>
+          <t>陈楚析</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>江臻胤</t>
+          <t>庄子辰</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>练长鑫</t>
+          <t>黄晨浩</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>廖柏辰</t>
+          <t>蒋元凯</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>林梓琦</t>
+          <t>黄圳贤</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>苏俊敏</t>
+          <t>张栋</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>张煜锋</t>
+          <t>林泽栋</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>陈煌仪</t>
+          <t>吴星宇</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>王璟逸</t>
+          <t>陈正予</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>张瀚琪</t>
+          <t>苏杭</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>林禹衡</t>
+          <t>姚庄博</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>王茁恺</t>
+          <t>张梓凌</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黄蓥芯</t>
+          <t>黄堇昊</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>杨子妍</t>
+          <t>吴泓博</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>曾雅琳</t>
+          <t>周煜喆</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>苏恩怡</t>
+          <t>陈梓沫</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>王希恩</t>
+          <t>陈勇屹</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>姚庄诚</t>
+          <t>许靖哲</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>张宇彤</t>
+          <t>童洪恩</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>李嘉勋</t>
+          <t>林乐恩</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>林凯楠</t>
+          <t>陈璐彤</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>陈玥颖</t>
+          <t>张紫涵</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>费奕文</t>
+          <t>陈雨欣</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>梁世弘</t>
+          <t>陈可馨</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>吕紫翔</t>
+          <t>张钧涵</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>李秋华</t>
+          <t>顾若馨</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>许宏伟</t>
+          <t>王雨潼</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>陈文铄</t>
+          <t>邱子钥</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>赵梓言</t>
+          <t>王一焓</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>苏瑾萱</t>
+          <t>李青禾</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>陈嘉俊</t>
+          <t>李梦琪</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>郑沛文</t>
+          <t>郑以沫</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>吴俊亿</t>
+          <t>蔡煜安</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>郭凯霖</t>
+          <t>陈泽勋</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>林祥锦</t>
+          <t>陈梓轩</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>张浚豪</t>
+          <t>洪健城</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>陈楚析</t>
+          <t>黄镓艺</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>庄子辰</t>
+          <t>江臻胤</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>黄晨浩</t>
+          <t>练长鑫</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>蒋元凯</t>
+          <t>廖柏辰</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>黄圳贤</t>
+          <t>林梓琦</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>张栋</t>
+          <t>苏俊敏</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>林泽栋</t>
+          <t>张煜锋</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>吴星宇</t>
+          <t>陈煌仪</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>陈正予</t>
+          <t>王璟逸</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>苏杭</t>
+          <t>张瀚琪</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>姚庄博</t>
+          <t>林禹衡</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>张梓凌</t>
+          <t>王茁恺</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黄堇昊</t>
+          <t>黄蓥芯</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>吴泓博</t>
+          <t>杨子妍</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>周煜喆</t>
+          <t>曾雅琳</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>陈梓沫</t>
+          <t>苏恩怡</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>陈勇屹</t>
+          <t>王希恩</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>许靖哲</t>
+          <t>姚庄诚</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>童洪恩</t>
+          <t>张宇彤</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>林乐恩</t>
+          <t>李嘉勋</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>陈璐彤</t>
+          <t>林凯楠</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>张紫涵</t>
+          <t>陈玥颖</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>陈雨欣</t>
+          <t>费奕文</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>陈可馨</t>
+          <t>梁世弘</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>张钧涵</t>
+          <t>吕紫翔</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>顾若馨</t>
+          <t>李秋华</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>王雨潼</t>
+          <t>许宏伟</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>邱子钥</t>
+          <t>陈文铄</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>王一焓</t>
+          <t>赵梓言</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>李青禾</t>
+          <t>苏瑾萱</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>李梦琪</t>
+          <t>陈嘉俊</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>郑以沫</t>
+          <t>郑沛文</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="成绩导入模板" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="成绩导入模板" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蔡煜安</t>
+          <t>王怀铮</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>陈泽勋</t>
+          <t>李亦辰</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -563,12 +563,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>陈梓轩</t>
+          <t>陈楷烨</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>洪健城</t>
+          <t>涂思铭</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>黄镓艺</t>
+          <t>黄罄易</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>江臻胤</t>
+          <t>吴建霖</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>练长鑫</t>
+          <t>黄启亮</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>廖柏辰</t>
+          <t>张煜林</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -665,12 +665,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>林梓琦</t>
+          <t>黄贵权</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>苏俊敏</t>
+          <t>夏逢瑞</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>张煜锋</t>
+          <t>苏学彬</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>陈煌仪</t>
+          <t>胡梓灿</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -733,12 +733,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>王璟逸</t>
+          <t>黄铄淞</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>张瀚琪</t>
+          <t>何礼轩</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -767,12 +767,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>林禹衡</t>
+          <t>黄辰隽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>王茁恺</t>
+          <t>肖锐骐</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黄蓥芯</t>
+          <t>康高钥</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -818,12 +818,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>杨子妍</t>
+          <t>庄程珺</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -835,12 +835,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>曾雅琳</t>
+          <t>魏瀚彬</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>苏恩怡</t>
+          <t>陈芷嫣</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>王希恩</t>
+          <t>兰勇炘</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>姚庄诚</t>
+          <t>吴世垚</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -903,12 +903,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>张宇彤</t>
+          <t>庄文焘</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -920,12 +920,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>李嘉勋</t>
+          <t>林昕妤</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>林凯楠</t>
+          <t>姚翔方</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>陈玥颖</t>
+          <t>黄永帅</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -971,12 +971,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>费奕文</t>
+          <t>林煌宸</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -988,12 +988,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>梁世弘</t>
+          <t>傅铂诗</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1005,12 +1005,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>吕紫翔</t>
+          <t>黄佳烨</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>李秋华</t>
+          <t>许雯淇</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>许宏伟</t>
+          <t>赖瀚宸</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>陈文铄</t>
+          <t>徐子嘉</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1073,12 +1073,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>赵梓言</t>
+          <t>郭宇珊</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1090,12 +1090,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>苏瑾萱</t>
+          <t>赵娅慧</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>陈嘉俊</t>
+          <t>谢优优</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>郑沛文</t>
+          <t>赖雨涵</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1299,10 +1299,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A48:F48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="成绩导入模板" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="成绩导入模板" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1299,10 +1299,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A50:F50"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A48:F48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="成绩导入模板" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="成绩导入模板" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1299,10 +1299,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
     <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A47:F47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="成绩导入模板" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="成绩导入模板" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -1299,10 +1299,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A49:F49"/>
     <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A50:F50"/>
     <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -1163,9 +1163,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A39:F39"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A39:F39"/>
     <mergeCell ref="A42:F42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>吴俊亿</t>
+          <t>王怀铮</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>郭凯霖</t>
+          <t>李亦辰</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -563,12 +563,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>林祥锦</t>
+          <t>陈楷烨</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>张浚豪</t>
+          <t>涂思铭</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>陈楚析</t>
+          <t>黄罄易</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>庄子辰</t>
+          <t>吴建霖</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>黄晨浩</t>
+          <t>黄启亮</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>蒋元凯</t>
+          <t>张煜林</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -665,12 +665,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>黄圳贤</t>
+          <t>黄贵权</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>张栋</t>
+          <t>夏逢瑞</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>林泽栋</t>
+          <t>苏学彬</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>吴星宇</t>
+          <t>胡梓灿</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -733,12 +733,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>陈正予</t>
+          <t>黄铄淞</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>苏杭</t>
+          <t>何礼轩</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -767,12 +767,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>姚庄博</t>
+          <t>黄辰隽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>张梓凌</t>
+          <t>肖锐骐</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黄堇昊</t>
+          <t>康高钥</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -818,12 +818,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>吴泓博</t>
+          <t>庄程珺</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -835,12 +835,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>周煜喆</t>
+          <t>魏瀚彬</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>陈梓沫</t>
+          <t>陈芷嫣</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>陈勇屹</t>
+          <t>兰勇炘</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>许靖哲</t>
+          <t>吴世垚</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -903,12 +903,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>童洪恩</t>
+          <t>庄文焘</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -920,12 +920,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>林乐恩</t>
+          <t>林昕妤</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>陈璐彤</t>
+          <t>姚翔方</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>张紫涵</t>
+          <t>黄永帅</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -971,12 +971,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>陈雨欣</t>
+          <t>林煌宸</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -988,12 +988,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>陈可馨</t>
+          <t>傅铂诗</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1005,12 +1005,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>张钧涵</t>
+          <t>黄佳烨</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>顾若馨</t>
+          <t>许雯淇</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>王雨潼</t>
+          <t>赖瀚宸</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>邱子钥</t>
+          <t>徐子嘉</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1073,12 +1073,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>王一焓</t>
+          <t>郭宇珊</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1090,12 +1090,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>李青禾</t>
+          <t>赵娅慧</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>李梦琪</t>
+          <t>谢优优</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
@@ -1124,49 +1124,185 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>郑以沫</t>
+          <t>赖雨涵</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>五年3班</t>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>王雅昕</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>说明事项：</t>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>林熙妍</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1. 成绩可填写：优、良、及格、待及格，请勿使用其他评分方式</t>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>林若冰</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2. 请勿修改学号、姓名和班级</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>朱雅晨</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>张杨唯一</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>许文强</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>林彦君</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>罗少卿</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>说明事项：</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1. 成绩可填写：优、良、及格、待及格，请勿使用其他评分方式</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2. 请勿修改学号、姓名和班级</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>3. 导入时只需填写有变更的成绩</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,12 +524,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>王怀铮</t>
+          <t>李亦辰</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -541,12 +541,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>李亦辰</t>
+          <t>陈楷烨</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -558,12 +558,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>陈楷烨</t>
+          <t>涂思铭</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,12 +575,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>涂思铭</t>
+          <t>黄罄易</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>黄罄易</t>
+          <t>吴建霖</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +609,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>吴建霖</t>
+          <t>黄启亮</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -626,12 +626,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>黄启亮</t>
+          <t>张煜林</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,12 +643,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>张煜林</t>
+          <t>黄贵权</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -660,12 +660,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>黄贵权</t>
+          <t>夏逢瑞</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -677,12 +677,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>夏逢瑞</t>
+          <t>苏学彬</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -694,12 +694,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>苏学彬</t>
+          <t>胡梓灿</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -711,12 +711,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>胡梓灿</t>
+          <t>黄铄淞</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -728,12 +728,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>黄铄淞</t>
+          <t>何礼轩</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -745,12 +745,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>何礼轩</t>
+          <t>黄辰隽</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -762,12 +762,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>黄辰隽</t>
+          <t>肖锐骐</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -779,12 +779,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>肖锐骐</t>
+          <t>康高钥</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -796,12 +796,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>康高钥</t>
+          <t>庄程珺</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -813,12 +813,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>庄程珺</t>
+          <t>魏瀚彬</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>魏瀚彬</t>
+          <t>陈芷嫣</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -847,12 +847,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>陈芷嫣</t>
+          <t>兰勇炘</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -864,12 +864,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>兰勇炘</t>
+          <t>吴世垚</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -881,12 +881,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>吴世垚</t>
+          <t>庄文焘</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>庄文焘</t>
+          <t>林昕妤</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -915,12 +915,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>林昕妤</t>
+          <t>姚翔方</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -932,12 +932,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>姚翔方</t>
+          <t>黄永帅</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -949,12 +949,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>黄永帅</t>
+          <t>林煌宸</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -966,12 +966,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>林煌宸</t>
+          <t>傅铂诗</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -983,12 +983,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>傅铂诗</t>
+          <t>黄佳烨</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1000,12 +1000,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>黄佳烨</t>
+          <t>许雯淇</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1017,12 +1017,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>许雯淇</t>
+          <t>赖瀚宸</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1034,12 +1034,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>赖瀚宸</t>
+          <t>徐子嘉</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1051,12 +1051,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>徐子嘉</t>
+          <t>郭宇珊</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1068,12 +1068,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>郭宇珊</t>
+          <t>赵娅慧</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1085,12 +1085,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>赵娅慧</t>
+          <t>谢优优</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1102,12 +1102,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>谢优优</t>
+          <t>赖雨涵</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1119,12 +1119,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>赖雨涵</t>
+          <t>王雅昕</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1136,12 +1136,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>王雅昕</t>
+          <t>林熙妍</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1153,12 +1153,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>林熙妍</t>
+          <t>林若冰</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1170,12 +1170,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>林若冰</t>
+          <t>朱雅晨</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1187,12 +1187,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>朱雅晨</t>
+          <t>张杨唯一</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1204,12 +1204,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>张杨唯一</t>
+          <t>许文强</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1221,12 +1221,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>许文强</t>
+          <t>林彦君</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>林彦君</t>
+          <t>罗少卿</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1252,57 +1252,40 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>罗少卿</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>六年级3班</t>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>说明事项：</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>说明事项：</t>
+          <t>1. 成绩可填写：优、良、及格、待及格，请勿使用其他评分方式</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1. 成绩可填写：优、良、及格、待及格，请勿使用其他评分方式</t>
+          <t>2. 请勿修改学号、姓名和班级</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2. 请勿修改学号、姓名和班级</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
           <t>3. 导入时只需填写有变更的成绩</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
     <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,12 +524,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>李亦辰</t>
+          <t>夏逢瑞</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -541,12 +541,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>陈楷烨</t>
+          <t>苏学彬</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -558,12 +558,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>涂思铭</t>
+          <t>胡梓灿</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,12 +575,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>黄罄易</t>
+          <t>黄铄淞</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>吴建霖</t>
+          <t>何礼轩</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +609,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>黄启亮</t>
+          <t>黄辰隽</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -626,12 +626,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>张煜林</t>
+          <t>肖锐骐</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,12 +643,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>黄贵权</t>
+          <t>康高钥</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -660,12 +660,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>夏逢瑞</t>
+          <t>庄程珺</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -677,12 +677,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>苏学彬</t>
+          <t>魏瀚彬</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -694,12 +694,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>胡梓灿</t>
+          <t>陈芷嫣</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -711,12 +711,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>黄铄淞</t>
+          <t>兰勇炘</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -728,12 +728,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>何礼轩</t>
+          <t>吴世垚</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -745,12 +745,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>黄辰隽</t>
+          <t>庄文焘</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -762,12 +762,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>肖锐骐</t>
+          <t>林昕妤</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -779,12 +779,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>康高钥</t>
+          <t>姚翔方</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -796,12 +796,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>庄程珺</t>
+          <t>黄永帅</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -813,12 +813,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>魏瀚彬</t>
+          <t>林煌宸</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>陈芷嫣</t>
+          <t>傅铂诗</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -847,12 +847,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>兰勇炘</t>
+          <t>黄佳烨</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -864,12 +864,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>吴世垚</t>
+          <t>许雯淇</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -881,12 +881,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>庄文焘</t>
+          <t>赖瀚宸</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>林昕妤</t>
+          <t>徐子嘉</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -915,12 +915,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>姚翔方</t>
+          <t>郭宇珊</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -932,12 +932,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>黄永帅</t>
+          <t>赵娅慧</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -949,12 +949,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>林煌宸</t>
+          <t>谢优优</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -966,12 +966,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>傅铂诗</t>
+          <t>赖雨涵</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -983,12 +983,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>黄佳烨</t>
+          <t>王雅昕</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1000,12 +1000,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>许雯淇</t>
+          <t>林熙妍</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1017,12 +1017,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>赖瀚宸</t>
+          <t>林若冰</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1034,12 +1034,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>徐子嘉</t>
+          <t>朱雅晨</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1051,12 +1051,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>郭宇珊</t>
+          <t>张杨唯一</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1068,12 +1068,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>赵娅慧</t>
+          <t>许文强</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1085,12 +1085,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>谢优优</t>
+          <t>林彦君</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1102,32 +1102,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>赖雨涵</t>
+          <t>罗少卿</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
-        <is>
-          <t>六年级3班</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>王雅昕</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>六年级3班</t>
         </is>
@@ -1136,156 +1119,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>林熙妍</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>六年级3班</t>
+          <t>说明事项：</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>林若冰</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>六年级3班</t>
+          <t>1. 成绩可填写：优、良、及格、待及格，请勿使用其他评分方式</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>朱雅晨</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>六年级3班</t>
+          <t>2. 请勿修改学号、姓名和班级</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>张杨唯一</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>六年级3班</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>许文强</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>六年级3班</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>林彦君</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>六年级3班</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>罗少卿</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>六年级3班</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>说明事项：</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1. 成绩可填写：优、良、及格、待及格，请勿使用其他评分方式</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2. 请勿修改学号、姓名和班级</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
           <t>3. 导入时只需填写有变更的成绩</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/grades_import_template.xlsx
+++ b/templates/grades_import_template.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,12 +524,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>夏逢瑞</t>
+          <t>王怀铮</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -541,12 +541,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>苏学彬</t>
+          <t>李亦辰</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -558,12 +558,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>胡梓灿</t>
+          <t>陈楷烨</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,12 +575,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>黄铄淞</t>
+          <t>涂思铭</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>何礼轩</t>
+          <t>黄罄易</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +609,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>黄辰隽</t>
+          <t>吴建霖</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -626,12 +626,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>肖锐骐</t>
+          <t>黄启亮</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,12 +643,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>康高钥</t>
+          <t>张煜林</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -660,12 +660,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>庄程珺</t>
+          <t>黄贵权</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -677,12 +677,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>魏瀚彬</t>
+          <t>夏逢瑞</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -694,12 +694,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>陈芷嫣</t>
+          <t>苏学彬</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -711,12 +711,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>兰勇炘</t>
+          <t>胡梓灿</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -728,12 +728,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>吴世垚</t>
+          <t>黄铄淞</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -745,12 +745,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>庄文焘</t>
+          <t>何礼轩</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -762,12 +762,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>林昕妤</t>
+          <t>黄辰隽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -779,12 +779,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>姚翔方</t>
+          <t>肖锐骐</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -796,12 +796,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黄永帅</t>
+          <t>康高钥</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -813,12 +813,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>林煌宸</t>
+          <t>庄程珺</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>傅铂诗</t>
+          <t>魏瀚彬</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -847,12 +847,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>黄佳烨</t>
+          <t>陈芷嫣</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -864,12 +864,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>许雯淇</t>
+          <t>兰勇炘</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -881,12 +881,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>赖瀚宸</t>
+          <t>吴世垚</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>徐子嘉</t>
+          <t>庄文焘</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -915,12 +915,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>郭宇珊</t>
+          <t>林昕妤</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -932,12 +932,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>赵娅慧</t>
+          <t>姚翔方</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -949,12 +949,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>谢优优</t>
+          <t>黄永帅</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -966,12 +966,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>赖雨涵</t>
+          <t>林煌宸</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -983,12 +983,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>王雅昕</t>
+          <t>傅铂诗</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1000,12 +1000,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>林熙妍</t>
+          <t>黄佳烨</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1017,12 +1017,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>林若冰</t>
+          <t>许雯淇</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1034,12 +1034,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>朱雅晨</t>
+          <t>赖瀚宸</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1051,12 +1051,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>张杨唯一</t>
+          <t>徐子嘉</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1068,12 +1068,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>许文强</t>
+          <t>郭宇珊</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1085,12 +1085,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>林彦君</t>
+          <t>赵娅慧</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1102,15 +1102,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>罗少卿</t>
+          <t>谢优优</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>赖雨涵</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>六年级3班</t>
         </is>
@@ -1119,37 +1136,173 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>说明事项：</t>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>王雅昕</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1. 成绩可填写：优、良、及格、待及格，请勿使用其他评分方式</t>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>林熙妍</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2. 请勿修改学号、姓名和班级</t>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>林若冰</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>朱雅晨</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>张杨唯一</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>许文强</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>林彦君</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>罗少卿</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>六年级3班</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>说明事项：</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1. 成绩可填写：优、良、及格、待及格，请勿使用其他评分方式</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2. 请勿修改学号、姓名和班级</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>3. 导入时只需填写有变更的成绩</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
